--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/29.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/29.xlsx
@@ -479,13 +479,13 @@
         <v>-0.191055861236216</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.947522881348871</v>
+        <v>-1.938763322827465</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1318710395068886</v>
+        <v>0.1290779675089802</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1479938986546727</v>
+        <v>-0.1465411508042185</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1971168218475045</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.090220681513833</v>
+        <v>-2.080436169232608</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06845677077445103</v>
+        <v>0.06709600595372413</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1204150502654983</v>
+        <v>-0.1194820795354076</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2211241116726737</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.303139494611048</v>
+        <v>-2.291987647292688</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0555441054584545</v>
+        <v>0.05388403077909131</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1439627058756738</v>
+        <v>-0.1426924640365832</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2581567009664489</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.473318319943094</v>
+        <v>-2.461702907355869</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000611256086105614</v>
+        <v>0.0001498808893784651</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1691602158285761</v>
+        <v>-0.1680666398084855</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2968001597392435</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.543757610064938</v>
+        <v>-2.530880715927169</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.07456662011478329</v>
+        <v>-0.07261599586532927</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1719737284997571</v>
+        <v>-0.1717123798914845</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3240013677058914</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.341865810174311</v>
+        <v>-2.330113883090587</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1275882665361327</v>
+        <v>-0.122866471010134</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1474901820633092</v>
+        <v>-0.1474303200915819</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3292843311082667</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.034757834684484</v>
+        <v>-2.021783117324624</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1786432281790281</v>
+        <v>-0.1714189102252118</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1160757873393176</v>
+        <v>-0.1166364458062265</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3022301886844928</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.681613812864261</v>
+        <v>-1.667902501242537</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.108314171688047</v>
+        <v>-0.1007423622885944</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07322337587114729</v>
+        <v>-0.07392127885860164</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2356391649520078</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.251384362012376</v>
+        <v>-1.236499171725562</v>
       </c>
       <c r="F10" t="n">
-        <v>0.007962598223830913</v>
+        <v>0.01172514215410263</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01057417233834593</v>
+        <v>-0.01113337075716396</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1252061412833397</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9400480872512782</v>
+        <v>-0.9236648876231917</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07400787361608591</v>
+        <v>0.07577453180608543</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01619389744025351</v>
+        <v>-0.01645670609661708</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.02231615910558167</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.577170654833012</v>
+        <v>-0.5584426179709261</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1469693968149754</v>
+        <v>0.1465255421953392</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02268673130052449</v>
+        <v>-0.02096971474561586</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1979869657420693</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.135482746563676</v>
+        <v>-0.1137061292877728</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01108418104219371</v>
+        <v>0.01116010354292096</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04594574930882071</v>
+        <v>0.0477386883644566</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.383063070848856</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3162342320421118</v>
+        <v>0.339977534096469</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1621359244632143</v>
+        <v>-0.1619446581633053</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1129502762968027</v>
+        <v>0.1165522149370745</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5703867968186033</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8609270730769655</v>
+        <v>0.8841797989727774</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.178900196643028</v>
+        <v>-0.1830598736540269</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1948662744372353</v>
+        <v>0.1984098111538707</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7626387196007811</v>
       </c>
       <c r="E16" t="n">
-        <v>1.561980844311505</v>
+        <v>1.581990803397408</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5125503863774838</v>
+        <v>-0.5184796416746641</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2599172570795815</v>
+        <v>0.2633658906703078</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.9704511676176105</v>
       </c>
       <c r="E17" t="n">
-        <v>2.26862075954186</v>
+        <v>2.284840433783765</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6781315202712576</v>
+        <v>-0.6849441046634376</v>
       </c>
       <c r="G17" t="n">
-        <v>0.369930420681461</v>
+        <v>0.37380100817046</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.196255848753059</v>
       </c>
       <c r="E18" t="n">
-        <v>3.033439211050655</v>
+        <v>3.046201491413288</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9566751149105465</v>
+        <v>-0.9624335445810903</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4806823686173403</v>
+        <v>0.4853530624601572</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.432452970031319</v>
       </c>
       <c r="E19" t="n">
-        <v>3.664286569833849</v>
+        <v>3.67400903007121</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.196384350427846</v>
+        <v>-1.202075617886208</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6002749077436719</v>
+        <v>0.6048171173544888</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.663606942321807</v>
       </c>
       <c r="E20" t="n">
-        <v>4.328347102589034</v>
+        <v>4.332064385028488</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.457011694943594</v>
+        <v>-1.461924756769502</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7108443496681877</v>
+        <v>0.7173298832880041</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.875246035376987</v>
       </c>
       <c r="E21" t="n">
-        <v>4.853225630982166</v>
+        <v>4.854367388589257</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.730395479629611</v>
+        <v>-1.733576924419701</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8589589282504206</v>
+        <v>0.8647071375843282</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.057093266359182</v>
       </c>
       <c r="E22" t="n">
-        <v>5.373725475150663</v>
+        <v>5.369240207415391</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.950488969045552</v>
+        <v>-1.952771024211643</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9455967219168518</v>
+        <v>0.951366831972123</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.202009772851558</v>
       </c>
       <c r="E23" t="n">
-        <v>5.721733777811115</v>
+        <v>5.714972295102116</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.201569059094849</v>
+        <v>-2.200723691250212</v>
       </c>
       <c r="G23" t="n">
-        <v>1.054596612143641</v>
+        <v>1.061363935045003</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.306016968680076</v>
       </c>
       <c r="E24" t="n">
-        <v>6.146943583326455</v>
+        <v>6.135292399561004</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.432677151308605</v>
+        <v>-2.429100763509924</v>
       </c>
       <c r="G24" t="n">
-        <v>1.175507574696063</v>
+        <v>1.181052837345334</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.365208695675465</v>
       </c>
       <c r="E25" t="n">
-        <v>6.439354714733195</v>
+        <v>6.422124687212381</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.556860811656799</v>
+        <v>-2.553653816025117</v>
       </c>
       <c r="G25" t="n">
-        <v>1.249664877281407</v>
+        <v>1.254915210216314</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.379808942487887</v>
       </c>
       <c r="E26" t="n">
-        <v>6.606020664358514</v>
+        <v>6.583927216646884</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.605577506282104</v>
+        <v>-2.603251649673286</v>
       </c>
       <c r="G26" t="n">
-        <v>1.314441370882662</v>
+        <v>1.318415621786115</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.352813541780713</v>
       </c>
       <c r="E27" t="n">
-        <v>6.711608422196849</v>
+        <v>6.687402284897674</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.690719480679399</v>
+        <v>-2.685570621086809</v>
       </c>
       <c r="G27" t="n">
-        <v>1.32444854049775</v>
+        <v>1.329856558626476</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.292361151163913</v>
       </c>
       <c r="E28" t="n">
-        <v>6.896862244067527</v>
+        <v>6.868788439375535</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.717156571461483</v>
+        <v>-2.713540762364347</v>
       </c>
       <c r="G28" t="n">
-        <v>1.36481010992283</v>
+        <v>1.369502704487011</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.207553113847536</v>
       </c>
       <c r="E29" t="n">
-        <v>6.861593322383536</v>
+        <v>6.832085750466272</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.738766743255022</v>
+        <v>-2.733985815781342</v>
       </c>
       <c r="G29" t="n">
-        <v>1.351037476281288</v>
+        <v>1.354875942712287</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.108148879318283</v>
       </c>
       <c r="E30" t="n">
-        <v>6.797365806864462</v>
+        <v>6.767212893691016</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.640326650845731</v>
+        <v>-2.638332225153549</v>
       </c>
       <c r="G30" t="n">
-        <v>1.334337446217475</v>
+        <v>1.337953985338656</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.001889763841964</v>
       </c>
       <c r="E31" t="n">
-        <v>6.823151716198001</v>
+        <v>6.789036232505828</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.540317736762757</v>
+        <v>-2.539754888223712</v>
       </c>
       <c r="G31" t="n">
-        <v>1.29589584003194</v>
+        <v>1.299502158816484</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.89424921844944</v>
       </c>
       <c r="E32" t="n">
-        <v>6.783492429904648</v>
+        <v>6.746694837869476</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.405819566676339</v>
+        <v>-2.407289835103884</v>
       </c>
       <c r="G32" t="n">
-        <v>1.249803581850043</v>
+        <v>1.252474009808315</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.789850258880555</v>
       </c>
       <c r="E33" t="n">
-        <v>6.617955097453602</v>
+        <v>6.578733825587521</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.371593849353303</v>
+        <v>-2.372372054985757</v>
       </c>
       <c r="G33" t="n">
-        <v>1.191845512833331</v>
+        <v>1.194426877858058</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.689683879712238</v>
       </c>
       <c r="E34" t="n">
-        <v>6.319216117620863</v>
+        <v>6.283658106414873</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.333837735746449</v>
+        <v>-2.336435891324221</v>
       </c>
       <c r="G34" t="n">
-        <v>1.141678260429708</v>
+        <v>1.144576455890162</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.596754416940609</v>
       </c>
       <c r="E35" t="n">
-        <v>6.123801821085553</v>
+        <v>6.08875628675947</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.296460504619187</v>
+        <v>-2.297473047970232</v>
       </c>
       <c r="G35" t="n">
-        <v>1.082007555002361</v>
+        <v>1.084987513155905</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.5099439577578</v>
       </c>
       <c r="E36" t="n">
-        <v>5.927124582951605</v>
+        <v>5.891662934919615</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.231973100539931</v>
+        <v>-2.235287409706294</v>
       </c>
       <c r="G36" t="n">
-        <v>1.060758015087276</v>
+        <v>1.061961094714184</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.430560894632817</v>
       </c>
       <c r="E37" t="n">
-        <v>5.620727650882051</v>
+        <v>5.587002000030151</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.187651150668261</v>
+        <v>-2.189787931049306</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9551877778260311</v>
+        <v>0.9573617894333941</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.356684761372889</v>
       </c>
       <c r="E38" t="n">
-        <v>5.315037382088497</v>
+        <v>5.281227048447324</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.14141507774941</v>
+        <v>-2.143617560294546</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8817269181800509</v>
+        <v>0.8841359975300502</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.287834167151102</v>
       </c>
       <c r="E39" t="n">
-        <v>5.000436439796126</v>
+        <v>4.965809939272136</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.082998553632153</v>
+        <v>-2.085371861803925</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8008212733185271</v>
+        <v>0.8037720305102536</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.221532061372038</v>
       </c>
       <c r="E40" t="n">
-        <v>4.70984598835875</v>
+        <v>4.675550918751396</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.103802048855466</v>
+        <v>-2.104790501413011</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7608232558680833</v>
+        <v>0.7629695265617191</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.157606654976369</v>
       </c>
       <c r="E41" t="n">
-        <v>4.388514224367291</v>
+        <v>4.355260169048755</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.997961702697403</v>
+        <v>-1.999223184247948</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6812623152982865</v>
+        <v>0.6835691912819222</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.093922449155065</v>
       </c>
       <c r="E42" t="n">
-        <v>4.00924045188812</v>
+        <v>3.979496352180128</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.907408060051155</v>
+        <v>-1.9085651481632</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6023291954075805</v>
+        <v>0.6039673693655799</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.029840199169462</v>
       </c>
       <c r="E43" t="n">
-        <v>3.707591596210201</v>
+        <v>3.679446249161754</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.85481931788876</v>
+        <v>-1.856134091194623</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5620669092526821</v>
+        <v>0.5641095165318634</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.9640209588648411</v>
       </c>
       <c r="E44" t="n">
-        <v>3.4050725518701</v>
+        <v>3.379584492347107</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.759533659379876</v>
+        <v>-1.761535385312512</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5132808623430588</v>
+        <v>0.5147263099530585</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.8967055861488438</v>
       </c>
       <c r="E45" t="n">
-        <v>3.122335699113722</v>
+        <v>3.097165930074547</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.677092043926717</v>
+        <v>-1.678985726300625</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4180711263349026</v>
+        <v>0.4206086899169019</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8278858458945135</v>
       </c>
       <c r="E46" t="n">
-        <v>2.827083314122074</v>
+        <v>2.803296210624989</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.599272940729374</v>
+        <v>-1.600492080885283</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3801784982315491</v>
+        <v>0.3829511295561848</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7590946128240539</v>
       </c>
       <c r="E47" t="n">
-        <v>2.496201375567981</v>
+        <v>2.474242252280714</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.477239201195043</v>
+        <v>-1.479541697034406</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3165320818526571</v>
+        <v>0.319173308849111</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6917445810326441</v>
       </c>
       <c r="E48" t="n">
-        <v>2.202467440590878</v>
+        <v>2.182923236845974</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.372482210720435</v>
+        <v>-1.375919163926434</v>
       </c>
       <c r="G48" t="n">
-        <v>0.288805768606301</v>
+        <v>0.2901431726575733</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6267696975242929</v>
       </c>
       <c r="E49" t="n">
-        <v>1.920702979863045</v>
+        <v>1.90363209758414</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.285759734264731</v>
+        <v>-1.290151558922184</v>
       </c>
       <c r="G49" t="n">
-        <v>0.23491393352277</v>
+        <v>0.2366148895486786</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5661170927995145</v>
       </c>
       <c r="E50" t="n">
-        <v>1.786619463434444</v>
+        <v>1.769161668411449</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.163753735644127</v>
+        <v>-1.169072690839308</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1971424894109619</v>
+        <v>0.1979820170632344</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5103649136273132</v>
       </c>
       <c r="E51" t="n">
-        <v>1.509446853952519</v>
+        <v>1.495963309832977</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.08780787414742</v>
+        <v>-1.093329776027237</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1664259976744247</v>
+        <v>0.1667603486872428</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4607901251306263</v>
       </c>
       <c r="E52" t="n">
-        <v>1.349821256221561</v>
+        <v>1.338251835149201</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.005106370134079</v>
+        <v>-1.011031245286986</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1435820852440672</v>
+        <v>0.1440901819797034</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4172571213125538</v>
       </c>
       <c r="E53" t="n">
-        <v>1.106623965815081</v>
+        <v>1.096572994757266</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9311388738005533</v>
+        <v>-0.9381660852620969</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1002055165112607</v>
+        <v>0.1006041096400788</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3808028627739511</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9611608345659386</v>
+        <v>0.9523494443373046</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.938739884161824</v>
+        <v>-0.9457714757676403</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04936518193772889</v>
+        <v>0.04955644823763793</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3510833251299773</v>
       </c>
       <c r="E55" t="n">
-        <v>0.799640094412982</v>
+        <v>0.7913966628917114</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8923599965060183</v>
+        <v>-0.8985433001710166</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02113515210000919</v>
+        <v>0.02229589033228161</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3288010596644608</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6522891209822943</v>
+        <v>0.6461598390966595</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8429052475707588</v>
+        <v>-0.8499748004269387</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01492118742510177</v>
+        <v>0.01559572964310159</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.3135132144910784</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5082874978721511</v>
+        <v>0.5029729228212434</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8100950468718585</v>
+        <v>-0.8180012072841292</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01282410644643623</v>
+        <v>-0.01173783066680016</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.3051183796387619</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3978100389773626</v>
+        <v>0.3934809963878183</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.804970278072769</v>
+        <v>-0.8119726687167671</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02846706169243203</v>
+        <v>-0.0277063766370686</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.3026414422386192</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2518344308483109</v>
+        <v>0.247322882247403</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7402317457218772</v>
+        <v>-0.7472063954521482</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09370347044232361</v>
+        <v>-0.0922434223514149</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.3051793831299011</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1913606989709635</v>
+        <v>0.1873616272499646</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7235988778702453</v>
+        <v>-0.7306801111111526</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.08085212714614524</v>
+        <v>-0.07970160925050919</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.311057801972891</v>
       </c>
       <c r="E61" t="n">
-        <v>0.03334991442855137</v>
+        <v>0.02968811381655235</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.6960214895291619</v>
+        <v>-0.70295963805716</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1373647485528573</v>
+        <v>-0.1363689957548576</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.3188087246404408</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.05379159582924341</v>
+        <v>-0.05787973048378777</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7144516765807024</v>
+        <v>-0.7213796047720642</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1691675160690306</v>
+        <v>-0.1687587026035762</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.3270933527397406</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1474566009572183</v>
+        <v>-0.1510862805112173</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7482036082982387</v>
+        <v>-0.754932969949237</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1843169750602993</v>
+        <v>-0.1837066749582994</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.3351979688935038</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2600598898723698</v>
+        <v>-0.2645057363091868</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7509923001518743</v>
+        <v>-0.7579304486798725</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2178046380733812</v>
+        <v>-0.2174089650407449</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.3418320378405271</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4131006707133287</v>
+        <v>-0.4176560207569639</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.7320525563166067</v>
+        <v>-0.7397046683610592</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2381445680278303</v>
+        <v>-0.2377664155722849</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.3471625392497817</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.436684827525777</v>
+        <v>-0.4429236130182299</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.7626449439654167</v>
+        <v>-0.77057154505096</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2533363684137353</v>
+        <v>-0.2538298646684624</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.3506798659508925</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.52372705451339</v>
+        <v>-0.5292255956237522</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8030634552660422</v>
+        <v>-0.8107622888494038</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2680273723044586</v>
+        <v>-0.2687384157247312</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.3528049270411814</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5564146111726539</v>
+        <v>-0.563289977632743</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.750917837699238</v>
+        <v>-0.7611337941913262</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3200065443888992</v>
+        <v>-0.3192385590930812</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.3535252269677575</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.636962544251905</v>
+        <v>-0.6436043030174486</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.7971531805940438</v>
+        <v>-0.8065675706842231</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3177945715311725</v>
+        <v>-0.3183128886034451</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.3528486819360326</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.7466939185722392</v>
+        <v>-0.7525676920419648</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.792913200938045</v>
+        <v>-0.8039891257556784</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3580466373494344</v>
+        <v>-0.3575473009023437</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.3505897195316547</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7747429024466862</v>
+        <v>-0.781110172171139</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9224822486695556</v>
+        <v>-0.9318659777498258</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4031110216753314</v>
+        <v>-0.4018290994515136</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.3467562171046092</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.8172697231905839</v>
+        <v>-0.8242195521033092</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.9890210203165377</v>
+        <v>-0.9982689649243535</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4204242719373268</v>
+        <v>-0.4196402261125088</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.3412812445063432</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8695803261916607</v>
+        <v>-0.8745050684022958</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.024202339115074</v>
+        <v>-1.03202089664189</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4537192086024088</v>
+        <v>-0.4528110586898635</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.3342657798293673</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.812726053531676</v>
+        <v>-0.8168988709754931</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.049040677237613</v>
+        <v>-1.057411132942792</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4682466871069503</v>
+        <v>-0.467211513010496</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.3263666828873662</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7972962653069529</v>
+        <v>-0.8005171313954974</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.115462645037322</v>
+        <v>-1.121748152068684</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4572875661365896</v>
+        <v>-0.4560260845860445</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.3181979268601096</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7136311295536117</v>
+        <v>-0.7168344750650654</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.158612906316038</v>
+        <v>-1.163232498475673</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4597769481315889</v>
+        <v>-0.4586103697069529</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.3107336144890642</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5619671740623797</v>
+        <v>-0.5665531851159239</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.142137723658224</v>
+        <v>-1.147967695685222</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4406079767460486</v>
+        <v>-0.4388632192774127</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.3044134499990468</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4221398284441445</v>
+        <v>-0.42859178095787</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.167170248176854</v>
+        <v>-1.171792760432671</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4536345258131361</v>
+        <v>-0.4511699646356822</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.2999363401300747</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3191494961595358</v>
+        <v>-0.3262891313240793</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.24996081512374</v>
+        <v>-1.253462010445739</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3969700594049694</v>
+        <v>-0.3951931808783335</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.2973409985719868</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1297462176144958</v>
+        <v>-0.1372041432628574</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.307661915676452</v>
+        <v>-1.309979011996724</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.374429836977521</v>
+        <v>-0.372622297440976</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.296966487817144</v>
       </c>
       <c r="E81" t="n">
-        <v>0.02926908001446156</v>
+        <v>0.02060661469110025</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.300931093977363</v>
+        <v>-1.301002636333818</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3239997759175345</v>
+        <v>-0.3231076865339893</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.2981235639016083</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2415104307974955</v>
+        <v>0.2322405854683161</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.289595280599548</v>
+        <v>-1.288765973283912</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2879073871102715</v>
+        <v>-0.287339428402908</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.3000142429292786</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4239609603336283</v>
+        <v>0.4143450836069036</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.230308567820109</v>
+        <v>-1.230066199837018</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2699896769386399</v>
+        <v>-0.2694655196740037</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.3006973565007737</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6298160607670276</v>
+        <v>0.6217668156418479</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.152379961015948</v>
+        <v>-1.152847176405039</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2456112539647374</v>
+        <v>-0.2450243146321921</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.2980357210270341</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7432486569978153</v>
+        <v>0.7364448328941807</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.0636250976177</v>
+        <v>-1.065109966526154</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2097685333810197</v>
+        <v>-0.2095816472253834</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2897209175883849</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9690407141125729</v>
+        <v>0.9615944688489385</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9985522142539898</v>
+        <v>-0.9992136160391714</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1809647046435729</v>
+        <v>-0.1801879590592095</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2733291399269074</v>
       </c>
       <c r="E87" t="n">
-        <v>1.112002782981989</v>
+        <v>1.104968271279991</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9434383189183682</v>
+        <v>-0.9431711301177319</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1508526728166719</v>
+        <v>-0.1502029514162175</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2473777748308944</v>
       </c>
       <c r="E88" t="n">
-        <v>1.213565188233689</v>
+        <v>1.207679734379236</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.889054447628201</v>
+        <v>-0.8876075399701104</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1145281363629544</v>
+        <v>-0.1138711147220455</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2101020092777224</v>
       </c>
       <c r="E89" t="n">
-        <v>1.335485044016929</v>
+        <v>1.330177769206476</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7937556486864993</v>
+        <v>-0.790450099808682</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1129177033186821</v>
+        <v>-0.1122329407640459</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1619757173640291</v>
       </c>
       <c r="E90" t="n">
-        <v>1.371402227053283</v>
+        <v>1.368431029188284</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6935598484478898</v>
+        <v>-0.6903448225517088</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07853065068160041</v>
+        <v>-0.07819629966878232</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1031973406083031</v>
       </c>
       <c r="E91" t="n">
-        <v>1.415514660023907</v>
+        <v>1.413451612071454</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5888466594160088</v>
+        <v>-0.58452637711501</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01633406205698075</v>
+        <v>-0.01736485600916229</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.03647114938602034</v>
       </c>
       <c r="E92" t="n">
-        <v>1.438549838754174</v>
+        <v>1.437051829412902</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4617991147374975</v>
+        <v>-0.4563794162240444</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02078282858997955</v>
+        <v>-0.020455777817616</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.03596033115124234</v>
       </c>
       <c r="E93" t="n">
-        <v>1.409236453233</v>
+        <v>1.408877281402636</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3536124712973447</v>
+        <v>-0.3480350875900735</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01402134588098137</v>
+        <v>-0.01369283506052691</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1098987091299057</v>
       </c>
       <c r="E94" t="n">
-        <v>1.410255566800454</v>
+        <v>1.408662654333273</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2137646850058368</v>
+        <v>-0.208244243174111</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.01648882715461707</v>
+        <v>-0.01699108369788966</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.181802555521488</v>
       </c>
       <c r="E95" t="n">
-        <v>1.335014908531656</v>
+        <v>1.334679097470747</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09711414278268633</v>
+        <v>-0.09273837865423296</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01871248039707102</v>
+        <v>-0.01904391131370729</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2482931286944831</v>
       </c>
       <c r="E96" t="n">
-        <v>1.257427952980768</v>
+        <v>1.256200052536314</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03026921295673402</v>
+        <v>0.03366236472000583</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03382251808988514</v>
+        <v>-0.0337655762143397</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3073360817261853</v>
       </c>
       <c r="E97" t="n">
-        <v>1.174430059204972</v>
+        <v>1.174241713001245</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1318170177275249</v>
+        <v>0.1330463782200701</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.0523125671131529</v>
+        <v>-0.0523957898543347</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3571098538383741</v>
       </c>
       <c r="E98" t="n">
-        <v>1.075592103690908</v>
+        <v>1.077211297023726</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1929915726885085</v>
+        <v>0.1939844053903264</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05741981533515153</v>
+        <v>-0.0576154617793333</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.398418745316127</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9382497599233993</v>
+        <v>0.9400996408545806</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1945465239053263</v>
+        <v>0.195142223526417</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05098246330233508</v>
+        <v>-0.05267173894351644</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.4335977443424247</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8433057526677884</v>
+        <v>0.8458637569230605</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2113356169026854</v>
+        <v>0.2113633578164127</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.0450619682937003</v>
+        <v>-0.04591025623451826</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4622077841669872</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6897510348988296</v>
+        <v>0.6940537966227376</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1974505595581437</v>
+        <v>0.1980725400448708</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.04895299645597199</v>
+        <v>-0.04954869607706273</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.483321010296305</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6308424745749364</v>
+        <v>0.6340764810962991</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2067320852720503</v>
+        <v>0.2068664096964139</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08117625782232697</v>
+        <v>-0.08149454830614507</v>
       </c>
     </row>
   </sheetData>
